--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H2">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I2">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J2">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.72992909362895</v>
+        <v>0.15683</v>
       </c>
       <c r="N2">
-        <v>1.72992909362895</v>
+        <v>0.47049</v>
       </c>
       <c r="O2">
-        <v>0.0995983794118019</v>
+        <v>0.005895093830118167</v>
       </c>
       <c r="P2">
-        <v>0.0995983794118019</v>
+        <v>0.005909707522044401</v>
       </c>
       <c r="Q2">
-        <v>7.416484669166907</v>
+        <v>0.003586649823333333</v>
       </c>
       <c r="R2">
-        <v>7.416484669166907</v>
+        <v>0.03227984841000001</v>
       </c>
       <c r="S2">
-        <v>0.03761309020896541</v>
+        <v>1.009102818555391E-05</v>
       </c>
       <c r="T2">
-        <v>0.03761309020896541</v>
+        <v>1.011604342388128E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H3">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I3">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J3">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.56950988732942</v>
+        <v>2.161662333333334</v>
       </c>
       <c r="N3">
-        <v>3.56950988732942</v>
+        <v>6.484987</v>
       </c>
       <c r="O3">
-        <v>0.2055098104203965</v>
+        <v>0.08125487651617787</v>
       </c>
       <c r="P3">
-        <v>0.2055098104203965</v>
+        <v>0.08145630396875631</v>
       </c>
       <c r="Q3">
-        <v>15.30306383846305</v>
+        <v>0.04943649700922223</v>
       </c>
       <c r="R3">
-        <v>15.30306383846305</v>
+        <v>0.444928473083</v>
       </c>
       <c r="S3">
-        <v>0.07761028928201422</v>
+        <v>0.0001390894314437091</v>
       </c>
       <c r="T3">
-        <v>0.07761028928201422</v>
+        <v>0.000139434228347692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -655,173 +661,173 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.28716107294838</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H4">
-        <v>4.28716107294838</v>
+        <v>0.068609</v>
       </c>
       <c r="I4">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J4">
-        <v>0.3776476126529068</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.069609630529</v>
+        <v>5.944413999999999</v>
       </c>
       <c r="N4">
-        <v>12.069609630529</v>
+        <v>17.833242</v>
       </c>
       <c r="O4">
-        <v>0.6948918101678017</v>
+        <v>0.2234449932734046</v>
       </c>
       <c r="P4">
-        <v>0.6948918101678017</v>
+        <v>0.2239989040996368</v>
       </c>
       <c r="Q4">
-        <v>51.74436057368681</v>
+        <v>0.1359467667086666</v>
       </c>
       <c r="R4">
-        <v>51.74436057368681</v>
+        <v>1.223520900378</v>
       </c>
       <c r="S4">
-        <v>0.2624242331619272</v>
+        <v>0.000382485807693689</v>
       </c>
       <c r="T4">
-        <v>0.2624242331619272</v>
+        <v>0.0003834339740708271</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.06511795466639</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H5">
-        <v>7.06511795466639</v>
+        <v>0.068609</v>
       </c>
       <c r="I5">
-        <v>0.6223523873470932</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J5">
-        <v>0.6223523873470932</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.72992909362895</v>
+        <v>18.14321433333333</v>
       </c>
       <c r="N5">
-        <v>1.72992909362895</v>
+        <v>54.42964299999999</v>
       </c>
       <c r="O5">
-        <v>0.0995983794118019</v>
+        <v>0.681986551520403</v>
       </c>
       <c r="P5">
-        <v>0.0995983794118019</v>
+        <v>0.6836771677597638</v>
       </c>
       <c r="Q5">
-        <v>12.22215309969765</v>
+        <v>0.4149292640652221</v>
       </c>
       <c r="R5">
-        <v>12.22215309969765</v>
+        <v>3.734363376586999</v>
       </c>
       <c r="S5">
-        <v>0.06198528920283649</v>
+        <v>0.001167402201200104</v>
       </c>
       <c r="T5">
-        <v>0.06198528920283649</v>
+        <v>0.001170296142605275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>7.06511795466639</v>
+        <v>0.02286966666666667</v>
       </c>
       <c r="H6">
-        <v>7.06511795466639</v>
+        <v>0.068609</v>
       </c>
       <c r="I6">
-        <v>0.6223523873470932</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="J6">
-        <v>0.6223523873470932</v>
+        <v>0.001711767187487096</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>3.56950988732942</v>
+        <v>0.1973575</v>
       </c>
       <c r="N6">
-        <v>3.56950988732942</v>
+        <v>0.394715</v>
       </c>
       <c r="O6">
-        <v>0.2055098104203965</v>
+        <v>0.007418484859896359</v>
       </c>
       <c r="P6">
-        <v>0.2055098104203965</v>
+        <v>0.004957916649798626</v>
       </c>
       <c r="Q6">
-        <v>25.21900839433029</v>
+        <v>0.004513500239166667</v>
       </c>
       <c r="R6">
-        <v>25.21900839433029</v>
+        <v>0.027081001435</v>
       </c>
       <c r="S6">
-        <v>0.1278995211383823</v>
+        <v>1.26987189640404E-05</v>
       </c>
       <c r="T6">
-        <v>0.1278995211383823</v>
+        <v>8.486799039421242E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,619 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.046308333333333</v>
+      </c>
+      <c r="H7">
+        <v>15.138925</v>
+      </c>
+      <c r="I7">
+        <v>0.3777101410722805</v>
+      </c>
+      <c r="J7">
+        <v>0.3777101410722805</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.15683</v>
+      </c>
+      <c r="N7">
+        <v>0.47049</v>
+      </c>
+      <c r="O7">
+        <v>0.005895093830118167</v>
+      </c>
+      <c r="P7">
+        <v>0.005909707522044401</v>
+      </c>
+      <c r="Q7">
+        <v>0.7914125359166666</v>
+      </c>
+      <c r="R7">
+        <v>7.122712823250001</v>
+      </c>
+      <c r="S7">
+        <v>0.002226636722208263</v>
+      </c>
+      <c r="T7">
+        <v>0.002232156461847308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.046308333333333</v>
+      </c>
+      <c r="H8">
+        <v>15.138925</v>
+      </c>
+      <c r="I8">
+        <v>0.3777101410722805</v>
+      </c>
+      <c r="J8">
+        <v>0.3777101410722805</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>2.161662333333334</v>
+      </c>
+      <c r="N8">
+        <v>6.484987</v>
+      </c>
+      <c r="O8">
+        <v>0.08125487651617787</v>
+      </c>
+      <c r="P8">
+        <v>0.08145630396875631</v>
+      </c>
+      <c r="Q8">
+        <v>10.90841464655278</v>
+      </c>
+      <c r="R8">
+        <v>98.17573181897501</v>
+      </c>
+      <c r="S8">
+        <v>0.03069079087173627</v>
+      </c>
+      <c r="T8">
+        <v>0.0307668720632655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.046308333333333</v>
+      </c>
+      <c r="H9">
+        <v>15.138925</v>
+      </c>
+      <c r="I9">
+        <v>0.3777101410722805</v>
+      </c>
+      <c r="J9">
+        <v>0.3777101410722805</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>5.944413999999999</v>
+      </c>
+      <c r="N9">
+        <v>17.833242</v>
+      </c>
+      <c r="O9">
+        <v>0.2234449932734046</v>
+      </c>
+      <c r="P9">
+        <v>0.2239989040996368</v>
+      </c>
+      <c r="Q9">
+        <v>29.99734590498333</v>
+      </c>
+      <c r="R9">
+        <v>269.97611314485</v>
+      </c>
+      <c r="S9">
+        <v>0.08439743993119242</v>
+      </c>
+      <c r="T9">
+        <v>0.08460665766751004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.046308333333333</v>
+      </c>
+      <c r="H10">
+        <v>15.138925</v>
+      </c>
+      <c r="I10">
+        <v>0.3777101410722805</v>
+      </c>
+      <c r="J10">
+        <v>0.3777101410722805</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>18.14321433333333</v>
+      </c>
+      <c r="N10">
+        <v>54.42964299999999</v>
+      </c>
+      <c r="O10">
+        <v>0.681986551520403</v>
+      </c>
+      <c r="P10">
+        <v>0.6836771677597638</v>
+      </c>
+      <c r="Q10">
+        <v>91.55625368375276</v>
+      </c>
+      <c r="R10">
+        <v>824.0062831537749</v>
+      </c>
+      <c r="S10">
+        <v>0.2575932365841695</v>
+      </c>
+      <c r="T10">
+        <v>0.2582317994824376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.046308333333333</v>
+      </c>
+      <c r="H11">
+        <v>15.138925</v>
+      </c>
+      <c r="I11">
+        <v>0.3777101410722805</v>
+      </c>
+      <c r="J11">
+        <v>0.3777101410722805</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.1973575</v>
+      </c>
+      <c r="N11">
+        <v>0.394715</v>
+      </c>
+      <c r="O11">
+        <v>0.007418484859896359</v>
+      </c>
+      <c r="P11">
+        <v>0.004957916649798626</v>
+      </c>
+      <c r="Q11">
+        <v>0.9959267968958333</v>
+      </c>
+      <c r="R11">
+        <v>5.975560781375</v>
+      </c>
+      <c r="S11">
+        <v>0.002802036962974031</v>
+      </c>
+      <c r="T11">
+        <v>0.001872655397220047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H12">
+        <v>24.873267</v>
+      </c>
+      <c r="I12">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J12">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.15683</v>
+      </c>
+      <c r="N12">
+        <v>0.47049</v>
+      </c>
+      <c r="O12">
+        <v>0.005895093830118167</v>
+      </c>
+      <c r="P12">
+        <v>0.005909707522044401</v>
+      </c>
+      <c r="Q12">
+        <v>1.30029148787</v>
+      </c>
+      <c r="R12">
+        <v>11.70262339083</v>
+      </c>
+      <c r="S12">
+        <v>0.003658366079724349</v>
+      </c>
+      <c r="T12">
+        <v>0.003667435016773211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H13">
+        <v>24.873267</v>
+      </c>
+      <c r="I13">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J13">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.161662333333334</v>
+      </c>
+      <c r="N13">
+        <v>6.484987</v>
+      </c>
+      <c r="O13">
+        <v>0.08125487651617787</v>
+      </c>
+      <c r="P13">
+        <v>0.08145630396875631</v>
+      </c>
+      <c r="Q13">
+        <v>17.92253479361434</v>
+      </c>
+      <c r="R13">
+        <v>161.302813142529</v>
+      </c>
+      <c r="S13">
+        <v>0.05042499621299788</v>
+      </c>
+      <c r="T13">
+        <v>0.0505499976771431</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.06511795466639</v>
-      </c>
-      <c r="H7">
-        <v>7.06511795466639</v>
-      </c>
-      <c r="I7">
-        <v>0.6223523873470932</v>
-      </c>
-      <c r="J7">
-        <v>0.6223523873470932</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>12.069609630529</v>
-      </c>
-      <c r="N7">
-        <v>12.069609630529</v>
-      </c>
-      <c r="O7">
-        <v>0.6948918101678017</v>
-      </c>
-      <c r="P7">
-        <v>0.6948918101678017</v>
-      </c>
-      <c r="Q7">
-        <v>85.27321570646481</v>
-      </c>
-      <c r="R7">
-        <v>85.27321570646481</v>
-      </c>
-      <c r="S7">
-        <v>0.4324675770058745</v>
-      </c>
-      <c r="T7">
-        <v>0.4324675770058745</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H14">
+        <v>24.873267</v>
+      </c>
+      <c r="I14">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J14">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.944413999999999</v>
+      </c>
+      <c r="N14">
+        <v>17.833242</v>
+      </c>
+      <c r="O14">
+        <v>0.2234449932734046</v>
+      </c>
+      <c r="P14">
+        <v>0.2239989040996368</v>
+      </c>
+      <c r="Q14">
+        <v>49.28566552684599</v>
+      </c>
+      <c r="R14">
+        <v>443.5709897416139</v>
+      </c>
+      <c r="S14">
+        <v>0.1386650675345185</v>
+      </c>
+      <c r="T14">
+        <v>0.1390088124580559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H15">
+        <v>24.873267</v>
+      </c>
+      <c r="I15">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J15">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.14321433333333</v>
+      </c>
+      <c r="N15">
+        <v>54.42964299999999</v>
+      </c>
+      <c r="O15">
+        <v>0.681986551520403</v>
+      </c>
+      <c r="P15">
+        <v>0.6836771677597638</v>
+      </c>
+      <c r="Q15">
+        <v>150.4270047837423</v>
+      </c>
+      <c r="R15">
+        <v>1353.843043053681</v>
+      </c>
+      <c r="S15">
+        <v>0.4232259127350333</v>
+      </c>
+      <c r="T15">
+        <v>0.424275072134721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.291088999999999</v>
+      </c>
+      <c r="H16">
+        <v>24.873267</v>
+      </c>
+      <c r="I16">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="J16">
+        <v>0.6205780917402324</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.1973575</v>
+      </c>
+      <c r="N16">
+        <v>0.394715</v>
+      </c>
+      <c r="O16">
+        <v>0.007418484859896359</v>
+      </c>
+      <c r="P16">
+        <v>0.004957916649798626</v>
+      </c>
+      <c r="Q16">
+        <v>1.6363085973175</v>
+      </c>
+      <c r="R16">
+        <v>9.817851583904998</v>
+      </c>
+      <c r="S16">
+        <v>0.004603749177958288</v>
+      </c>
+      <c r="T16">
+        <v>0.003076774453539157</v>
       </c>
     </row>
   </sheetData>
